--- a/Matuchet/Оборудование по ЛОК 2024/Туроборудование для ЭБЦ по ЛОК 2024.xlsx
+++ b/Matuchet/Оборудование по ЛОК 2024/Туроборудование для ЭБЦ по ЛОК 2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1523,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
